--- a/public/academics_excel/ug_semester7.xlsx
+++ b/public/academics_excel/ug_semester7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_page\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s417\dept_website\public\academics_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1167A15-8711-45C0-B3E4-DF350767C485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA4E84-7714-4DB7-A22B-13013D7CBA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19826118-3956-4E0A-B483-826EBC5EC201}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="11295" xr2:uid="{19826118-3956-4E0A-B483-826EBC5EC201}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Course No</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>FE</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -479,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F430EEAF-D066-470D-BCE2-A7A731E3A4B7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,32 +593,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,15 +731,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7254CB74-FF39-4FD7-9DA9-ECB086E5BA1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17233267-943B-4925-8762-6C4197A5E71E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3560e39-0a11-4efc-9624-a91941d62270"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -786,17 +774,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17233267-943B-4925-8762-6C4197A5E71E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7254CB74-FF39-4FD7-9DA9-ECB086E5BA1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a3560e39-0a11-4efc-9624-a91941d62270"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>